--- a/biology/Botanique/Armeria_belgenciensis/Armeria_belgenciensis.xlsx
+++ b/biology/Botanique/Armeria_belgenciensis/Armeria_belgenciensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arméria de Belgentier, Armérie de Belgentier
 Armeria belgenciensis, de noms communs Arméria de Belgentier ou Armérie de Belgentier, est une espèce de plante à fleurs de la famille des Plumbaginaceae et du genre Armeria. Elle est endémique de Solliès-Toucas, une commune du Var en France. Elle pousse sur la zone dolomitique de Morière-la-Tourne à Solliès-Toucas (et non à Belgentier). Cette espèce élancée, de vingt à cinquante centimètres de haut, aux feuilles très fines et rigides et aux petits capitules de fleurs blanc rosé, affectionne les sables dolomitiques chauds et ensoleillés.
@@ -514,10 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-C'est une plante vivace de 20–40 cm, glabre, densément gazonnante ; les feuilles linéaires, sont raides, les extérieures plus courtes et planes, les autres allongées, étroites, linéaires-canaliculées, à une nervure ; les hampes sont très grêles ; la gaîne est de 15–20 mm, au moins une fois plus longue que le capitule petit (10–15 mm)[2].
-Appareil reproducteur
-Les fleurs sont blanchâtres ou rosées ; l'involucre est pâle, à folioles peu nombreuses, scarieuses, les extérieures ovales-arrondies, mucronulées ou non, bien plus courtes que les intérieures ; le calice est à tube quatre fois plus long que le pédicelle, à lobes triangulaires, plus courts que le tube, atténués en arête un peu plus courte qu'eux[2].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante vivace de 20–40 cm, glabre, densément gazonnante ; les feuilles linéaires, sont raides, les extérieures plus courtes et planes, les autres allongées, étroites, linéaires-canaliculées, à une nervure ; les hampes sont très grêles ; la gaîne est de 15–20 mm, au moins une fois plus longue que le capitule petit (10–15 mm).
 </t>
         </is>
       </c>
@@ -543,13 +558,52 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les fleurs sont blanchâtres ou rosées ; l'involucre est pâle, à folioles peu nombreuses, scarieuses, les extérieures ovales-arrondies, mucronulées ou non, bien plus courtes que les intérieures ; le calice est à tube quatre fois plus long que le pédicelle, à lobes triangulaires, plus courts que le tube, atténués en arête un peu plus courte qu'eux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Armeria_belgenciensis</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Armeria_belgenciensis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Menaces et conservation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Armérie de Belgentier est extrêmement menacée, elle est classée « en danger critique d'extinction » aux niveaux mondial, national et local[1]. Elle est classée sur le Livre rouge de la flore menacée en France depuis 1990.
-En 2003, la population totale est de moins de deux cents individus. À la suite de travaux de voirie, en 2005, cette population a été réduite à moins de cinquante individus. Elle est menacée notamment à cause d’une ligne électrique qui traverse la station. Le pacage prolongé de caprins sur le site principal de cette espèce endémique est aussi une menace[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Armérie de Belgentier est extrêmement menacée, elle est classée « en danger critique d'extinction » aux niveaux mondial, national et local. Elle est classée sur le Livre rouge de la flore menacée en France depuis 1990.
+En 2003, la population totale est de moins de deux cents individus. À la suite de travaux de voirie, en 2005, cette population a été réduite à moins de cinquante individus. Elle est menacée notamment à cause d’une ligne électrique qui traverse la station. Le pacage prolongé de caprins sur le site principal de cette espèce endémique est aussi une menace.
 </t>
         </is>
       </c>
